--- a/template/pdp1.xlsx
+++ b/template/pdp1.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{B7E95811-C47F-430D-9A47-F2C951D5F4D3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,10 +310,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -338,17 +338,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,425 +658,453 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="11" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="14" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="E30" s="14" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="E36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="14" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="E42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="E44" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="E46" s="14" t="s">
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="E48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F48:G48"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F40:G40"/>
@@ -1077,15 +1112,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/pdp1.xlsx
+++ b/template/pdp1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{B7E95811-C47F-430D-9A47-F2C951D5F4D3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BF5BC-9573-41D9-AF68-B10BA8888A0D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -320,7 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,20 +341,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,16 +657,15 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="7" width="17.375" customWidth="1"/>
+    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -658,72 +674,72 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -735,36 +751,36 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
@@ -772,17 +788,17 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
@@ -790,17 +806,17 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
@@ -808,17 +824,17 @@
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
@@ -826,17 +842,17 @@
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
@@ -844,17 +860,17 @@
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
@@ -862,20 +878,20 @@
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -896,17 +912,17 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
@@ -914,7 +930,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="23"/>
@@ -924,7 +940,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
@@ -932,7 +948,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="23"/>
@@ -942,7 +958,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
@@ -950,7 +966,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="23"/>
@@ -960,7 +976,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
@@ -968,7 +984,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="23"/>
@@ -978,7 +994,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
@@ -986,7 +1002,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="23"/>
@@ -996,7 +1012,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
@@ -1004,7 +1020,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="23"/>
@@ -1014,7 +1030,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
@@ -1022,7 +1038,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="23"/>
@@ -1032,7 +1048,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
@@ -1040,7 +1056,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="23"/>
@@ -1050,7 +1066,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
@@ -1058,7 +1074,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="23"/>
@@ -1068,7 +1084,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="E47" s="18"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
@@ -1076,42 +1092,42 @@
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F48:G49"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F24:G25"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F48:G48"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/pdp1.xlsx
+++ b/template/pdp1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BF5BC-9573-41D9-AF68-B10BA8888A0D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -340,9 +339,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -646,18 +642,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +698,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -711,7 +707,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -720,7 +716,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -729,7 +725,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -738,7 +734,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -754,8 +750,8 @@
       <c r="E10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -773,8 +769,8 @@
       <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -791,8 +787,8 @@
       <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -809,8 +805,8 @@
       <c r="E16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -827,8 +823,8 @@
       <c r="E18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -845,8 +841,8 @@
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -863,8 +859,8 @@
       <c r="E22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
@@ -881,8 +877,8 @@
       <c r="E24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -890,8 +886,8 @@
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -915,8 +911,8 @@
       <c r="E28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -933,8 +929,8 @@
       <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -951,8 +947,8 @@
       <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -969,8 +965,8 @@
       <c r="E34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -987,8 +983,8 @@
       <c r="E36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
@@ -1005,8 +1001,8 @@
       <c r="E38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
@@ -1023,8 +1019,8 @@
       <c r="E40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1041,8 +1037,8 @@
       <c r="E42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -1059,8 +1055,8 @@
       <c r="E44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -1077,8 +1073,8 @@
       <c r="E46" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -1095,8 +1091,8 @@
       <c r="E48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -1104,16 +1100,18 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F20:G20"/>
@@ -1121,13 +1119,11 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F48:G49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,7 +1132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDE14FD-27BE-4940-82F3-6899F8488759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1150,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59CFCEE-9D87-4FE5-885B-4C4265A33E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/template/pdp1.xlsx
+++ b/template/pdp1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BC8B4F5-902C-104C-8FB9-3A574AF75E17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="30720" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>SUPPLIER RECORD LIST - FABRIC/BUTTON/ZIP/TRIMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +182,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -202,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -305,11 +322,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -341,22 +478,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -364,11 +511,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,34 +811,292 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="7" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="28">
+      <c r="A2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="39"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="39"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="39"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -692,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -701,7 +1128,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -710,7 +1137,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -719,7 +1146,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -728,7 +1155,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -737,12 +1164,12 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -750,19 +1177,18 @@
       <c r="E10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="E11" s="10"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -772,7 +1198,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -780,7 +1206,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -790,7 +1216,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -798,7 +1224,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -808,7 +1234,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -816,7 +1242,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -826,7 +1252,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -834,7 +1260,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -844,7 +1270,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -852,7 +1278,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -862,7 +1288,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -870,7 +1296,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -880,7 +1306,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -889,7 +1315,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -898,12 +1324,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -914,7 +1340,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -922,17 +1348,17 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -940,17 +1366,17 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -958,17 +1384,17 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="E34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -976,17 +1402,17 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="E36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -994,17 +1420,17 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="E38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1012,17 +1438,17 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="E40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1030,17 +1456,17 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="E42" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1048,17 +1474,17 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="E44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1066,17 +1492,17 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1084,7 +1510,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1094,7 +1520,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1105,40 +1531,26 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="F24:G25"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F34:G34"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F48:G49"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F46:G46"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1146,12 +1558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
